--- a/JieLongMod_6/Excel/J剧情_主线.xlsx
+++ b/JieLongMod_6/Excel/J剧情_主线.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>剧情事件ID_StoryEvenID</t>
   </si>
@@ -41,17 +41,87 @@
     <t>结果_Result</t>
   </si>
   <si>
+    <t>第一棒开局_哲</t>
+  </si>
+  <si>
+    <t>PUSH_EVENT*云岿山势力开启
+CHANGE_CAMP*云岿山#铃
+RUN_SCRIPT_FUNC*Phone/Command#AddFriend#铃
+SELECTION_VIEW*jl_storycards_1#旧艾利都因零号空洞毁灭后，兄妹二人搬到新艾利都居住，一起经营录像店「Random Play」，店面位于六分街街尾。\n你们兄妹二人的另一身份是处理空洞问题的「绳匠」，合称「法厄同」，是在业界颇负盛名的传奇绳匠。\n 你二人通过计算机运行空洞深潜系统（Hollow Deep Dive System），由兄妹中的其中一人将自身知觉与投放到空洞的邦布伊埃斯进行连接，以此在空洞中进行活动。#1:[@lan=536]继续</t>
+  </si>
+  <si>
+    <t>1[=]1:EVENT*第一棒开局_开场动画</t>
+  </si>
+  <si>
+    <t>第一棒开局_铃</t>
+  </si>
+  <si>
+    <t>PUSH_EVENT*云岿山势力开启
+CHANGE_CAMP*云岿山#哲
+RUN_SCRIPT_FUNC*Phone/Command#AddFriend#哲
+SELECTION_VIEW*jl_storycards_2#旧艾利都因零号空洞毁灭后，兄妹二人搬到新艾利都居住，一起经营录像店「Random Play」，店面位于六分街街尾。\n你们兄妹二人的另一身份是处理空洞问题的「绳匠」，合称「法厄同」，是在业界颇负盛名的传奇绳匠。\n 你二人通过计算机运行空洞深潜系统（Hollow Deep Dive System），由兄妹中的其中一人将自身知觉与投放到空洞的邦布伊埃斯进行连接，以此在空洞中进行活动。#1:[@lan=536]继续</t>
+  </si>
+  <si>
+    <t>第一棒开局_开场动画</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CLOSE_ITEM_PANEL*
+RUN_SCRIPT_FUNC*plasticTest#AudioClose#0
+OPEN_GUI*dpcqGUI#dpcqVedio#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gui/JLVideoWin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">#{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"video_path":"Assets/BuildSource/video/欢迎来到随便观.prefab", "exit_time":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>1[=]1:EVENT*第一棒开局</t>
+  </si>
+  <si>
     <t>第一棒开局</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">RUN_SCRIPT_FUNC*plasticTest#AudioClose#1
-TELEPORT*suibianguan:740,1174
 </t>
     </r>
     <r>
@@ -61,10 +131,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>SETSTRVAR*temp#jl_storycards_1
-IF*[$player:gender$][=]1
-SETSTRVAR*temp#jl_storycards_2
-END_IF*</t>
+      <t>RUN_SCRIPT_FUNC*Phone/Command#AddFriend#仪玄
+RUN_SCRIPT_FUNC*Phone/Command#AddFriend#橘福福
+RUN_SCRIPT_FUNC*Phone/Command#AddFriend#潘引壶
+RUN_SCRIPT_FUNC*Phone/Command#AddFriend#叶释渊</t>
     </r>
     <r>
       <rPr>
@@ -73,7 +143,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-SELECTION_VIEW*</t>
+TELEPORT*</t>
     </r>
     <r>
       <rPr>
@@ -82,7 +152,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>[$str_val:temp$]</t>
+      <t>随便观</t>
     </r>
     <r>
       <rPr>
@@ -90,7 +160,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>#旧艾利都因零号空洞毁灭后，兄妹二人搬到新艾利都居住，一起经营录像店「Random Play」，店面位于六分街街尾。\n你们兄妹二人的另一身份是处理空洞问题的「绳匠」，合称「法厄同」，是在业界颇负盛名的传奇绳匠。\n 你二人通过计算机运行空洞深潜系统（Hollow Deep Dive System），由兄妹中的其中一人将自身知觉与投放到空洞的邦布伊埃斯进行连接，以此在空洞中进行活动。#1:[@lan=536]继续
+      <t>:740,1174
 SELECTION_VIEW*</t>
     </r>
     <r>
@@ -118,28 +188,69 @@
     <t>第一棒开局_2</t>
   </si>
   <si>
-    <t>*主角#来到随便观修行一段时间后，感觉对空洞的以太适性已经足以直接进入其中进行探索了。
-*主角#师父让我在前往空洞之前先去[[yellow:主殿]]取她给我准备的东西，去看看她给我准备了什么吧。</t>
-  </si>
-  <si>
-    <t>1[=]1:EVENT*云岿山势力开启</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*主角#来到随便观修行一段时间后，感觉对[[imp:空洞]]的以太适性已经足以直接[[yellow:进入其中进行探索]]了。
+*主角#师父让我在前往空洞之前先去[[imp:主殿]]取她给我[[yellow:准备的东西]]，去看看她给我准备了什么吧。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GET_QUEST*接龙_主线1</t>
+    </r>
   </si>
   <si>
     <t>随便观新手礼包</t>
   </si>
   <si>
-    <t>GETITEMS*第一棒门派令牌,1|随便观,1
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DONE_QUEST*接龙_主线1#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+GETITEMS*第一棒门派令牌,1|随便观,1
 *主角#这些是……
 *仪玄#喂喂，好徒儿，可以听见我的声音吗？
 *主角#哎，师父？
 *仪玄#很好。
 *仪玄#此番你亲身去空洞历练难免遭遇凶险。
-*仪玄#是以我将这传音令牌交予你随身携带，若遇难事随时唤我便是。
-*仪玄#另外这一件空洞通道是你的物件，确是好物，能自由穿梭空洞与现世。
+*仪玄#是以我将这[[imp:传音令牌]]交予你随身携带，[[yellow:若遇难事随时唤我]]便是。
+*仪玄#另外这一件[[imp:空洞通道]]是你的物件，确是好物，能[[yellow:自由穿梭空洞与现世]]。
 *仪玄#之前为修行故，向你暂借，现下交还于你。
-*仪玄#此外，我素来鼓励弟子入世修行，若你有交好的师兄姐妹，也可邀请一同前往，互相照拂好过一人行单。
+*仪玄#此外，我素来鼓励弟子入世修行，若你有交好的师兄姐妹，也可[[yellow:邀请一同前往]]，互相照拂好过一人行单。
 *仪玄#若准备妥当便去吧。
-*主角#是，有劳师父挂心，我这便出发了。</t>
+*主角#是，有劳师父挂心，我这便出发了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GET_QUEST*接龙_主线2</t>
+    </r>
   </si>
   <si>
     <t>云岿山势力开启</t>
@@ -168,7 +279,25 @@
     <t>云岿山势力开放</t>
   </si>
   <si>
-    <t>SET_MAP*suibianguan#0
+    <r>
+      <t>SET_MAP*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#0
 SET_ROLE_ACTIVE*仪玄#0
 SET_ROLE_ACTIVE*橘福福#0
 SET_ROLE_ACTIVE*潘引壶#0
@@ -181,6 +310,7 @@
 CHANGE_ROLE_ATTRIBUTE*橘福福#can_recruit#1
 CHANGE_ROLE_ATTRIBUTE*潘引壶#can_recruit#1
 CHANGE_ROLE_ATTRIBUTE*叶释渊#can_recruit#1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -193,7 +323,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,6 +333,12 @@
     <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -239,12 +375,25 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -391,6 +540,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -719,31 +874,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,115 +895,127 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -876,23 +1031,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="23" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -904,43 +1062,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1337,97 +1510,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="152.254545454545" style="7" customWidth="1"/>
-    <col min="4" max="4" width="94.7545454545455" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="51.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="152.254545454545" style="8" customWidth="1"/>
+    <col min="4" max="4" width="94.7545454545455" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="207.95" customHeight="1" spans="1:4">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="2" customFormat="1" ht="90" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="207.95" customHeight="1" spans="1:4">
-      <c r="A3" s="17" t="s">
+    <row r="3" s="2" customFormat="1" ht="90" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="42" spans="1:5">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="207.95" customHeight="1" spans="1:4">
-      <c r="A4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="16"/>
+    <row r="5" s="3" customFormat="1" ht="207.95" customHeight="1" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="196" spans="1:4">
-      <c r="A5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="21"/>
+    <row r="6" s="4" customFormat="1" ht="207.95" customHeight="1" spans="1:4">
+      <c r="A6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16"/>
     </row>
-    <row r="6" s="4" customFormat="1" ht="210" spans="1:4">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="21"/>
+    <row r="7" s="4" customFormat="1" ht="210" spans="1:4">
+      <c r="A7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="196" spans="1:4">
+      <c r="A8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="210" spans="1:4">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A3 A4 A1:A2" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1 A2 A3 A5 A6 A7" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
